--- a/RESULTS/IPFSPublicationTimes_NoGeometryAnalysis.xlsx
+++ b/RESULTS/IPFSPublicationTimes_NoGeometryAnalysis.xlsx
@@ -20941,8 +20941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21058A94-A7FD-4E1A-88A0-C19A96881E61}">
   <dimension ref="A1:P146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -21016,7 +21016,7 @@
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" ref="O2:O65" si="0">B2</f>
+        <f t="shared" ref="O2:O63" si="0">B2</f>
         <v>4809</v>
       </c>
       <c r="P2" s="2">
@@ -21053,11 +21053,11 @@
         <v>108</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L66" si="1">I3</f>
+        <f t="shared" ref="L3:L63" si="1">I3</f>
         <v>108</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M66" si="2">G3/60000</f>
+        <f t="shared" ref="M3:M63" si="2">G3/60000</f>
         <v>4.8550000000000003E-2</v>
       </c>
       <c r="O3" s="3">
@@ -21065,7 +21065,7 @@
         <v>16877</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P66" si="3">M3</f>
+        <f t="shared" ref="P3:P63" si="3">M3</f>
         <v>4.8550000000000003E-2</v>
       </c>
     </row>
